--- a/QA/testcases/EDockets/CASE/Creating_Case_From_Case.xlsx
+++ b/QA/testcases/EDockets/CASE/Creating_Case_From_Case.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="277">
   <si>
     <t>Step No</t>
   </si>
@@ -372,9 +372,6 @@
     <t>MENU_HOME</t>
   </si>
   <si>
-    <t xml:space="preserve"> Click on home menu</t>
-  </si>
-  <si>
     <t>Home menu should be clicked</t>
   </si>
   <si>
@@ -423,12 +420,6 @@
     <t>Case</t>
   </si>
   <si>
-    <t>Type Product name</t>
-  </si>
-  <si>
-    <t>Product name must be typed</t>
-  </si>
-  <si>
     <t>COURT_RULE_SET_TEXTBOX</t>
   </si>
   <si>
@@ -480,12 +471,6 @@
     <t>CLIENTNAME_SEARCH_PAGE</t>
   </si>
   <si>
-    <t>Click on search icon</t>
-  </si>
-  <si>
-    <t>Search icon should be clicked</t>
-  </si>
-  <si>
     <t>Enter should be  pressed</t>
   </si>
   <si>
@@ -721,13 +706,163 @@
   </si>
   <si>
     <t>18,84</t>
+  </si>
+  <si>
+    <t>babu@edocketspro.com,America1*</t>
+  </si>
+  <si>
+    <t>Page should be refreshed</t>
+  </si>
+  <si>
+    <t>Type Case Title</t>
+  </si>
+  <si>
+    <t>Case title should be typed</t>
+  </si>
+  <si>
+    <t>Type Client  id</t>
+  </si>
+  <si>
+    <t>Client id should be typed</t>
+  </si>
+  <si>
+    <t>Click on Matter id textbox</t>
+  </si>
+  <si>
+    <t>Matter id textbox should be clicked</t>
+  </si>
+  <si>
+    <t>Wait for element until present</t>
+  </si>
+  <si>
+    <t>Should wait until element present</t>
+  </si>
+  <si>
+    <t>Wait for element until not present</t>
+  </si>
+  <si>
+    <t>Should wait until element not present</t>
+  </si>
+  <si>
+    <t>Retrieve Client name</t>
+  </si>
+  <si>
+    <t>Client name should be retrieved</t>
+  </si>
+  <si>
+    <t>Click on Jurisdiction label</t>
+  </si>
+  <si>
+    <t>Jurisdiction label should be clicked</t>
+  </si>
+  <si>
+    <t>Retrieve Matter name</t>
+  </si>
+  <si>
+    <t>Matter name should be retrieved</t>
+  </si>
+  <si>
+    <t>Click on Court rule set</t>
+  </si>
+  <si>
+    <t>Court set rule must be clicked</t>
+  </si>
+  <si>
+    <t>Switch to Main window</t>
+  </si>
+  <si>
+    <t>Should be switched to Main window</t>
+  </si>
+  <si>
+    <t>Click on Open button</t>
+  </si>
+  <si>
+    <t>Open button should be clicked</t>
+  </si>
+  <si>
+    <t>Switch to default content</t>
+  </si>
+  <si>
+    <t>Should be switched to Default content</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details page</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details page</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details Content</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details Content</t>
+  </si>
+  <si>
+    <t>Retrieve Client id</t>
+  </si>
+  <si>
+    <t>Client id should be retrieved</t>
+  </si>
+  <si>
+    <t>Retrieve Matter id</t>
+  </si>
+  <si>
+    <t>Matter id should be retrieved</t>
+  </si>
+  <si>
+    <t>Split the details</t>
+  </si>
+  <si>
+    <t>Details should be splitted</t>
+  </si>
+  <si>
+    <t>Check strings are matched</t>
+  </si>
+  <si>
+    <t>Strings should be matched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add new </t>
+  </si>
+  <si>
+    <t>Add new should be clicked</t>
+  </si>
+  <si>
+    <t>Switch frame to Create Case details popup</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Create Case details popup</t>
+  </si>
+  <si>
+    <t>Verify Client name</t>
+  </si>
+  <si>
+    <t>Client name should be verified</t>
+  </si>
+  <si>
+    <t>Verify Matter name</t>
+  </si>
+  <si>
+    <t>Matter name should be verified</t>
+  </si>
+  <si>
+    <t>Court rule set should be clicked</t>
+  </si>
+  <si>
+    <t>Click on add Attorney button</t>
+  </si>
+  <si>
+    <t>Click on save button</t>
+  </si>
+  <si>
+    <t>Click on home menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +882,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -767,6 +903,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -801,10 +950,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -821,8 +974,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1192,7 +1347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1202,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1277,7 +1432,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1286,16 +1441,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1313,7 +1470,7 @@
         <v>81</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1327,8 +1484,12 @@
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -1362,13 +1523,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
         <v>117</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>118</v>
-      </c>
-      <c r="G8" t="s">
-        <v>119</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1383,13 +1544,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s">
         <v>127</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" t="s">
-        <v>129</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1423,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1441,19 +1602,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1468,16 +1629,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E13" s="11">
         <v>347</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1492,9 +1653,15 @@
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E14" s="11"/>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s">
+        <v>234</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
@@ -1508,9 +1675,15 @@
         <v>33</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E15" s="11"/>
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" t="s">
+        <v>236</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
@@ -1524,9 +1697,15 @@
         <v>33</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E16" s="11"/>
+      <c r="F16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
@@ -1559,7 +1738,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="F18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1574,16 +1759,16 @@
         <v>6</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1617,7 +1802,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="F21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s">
+        <v>242</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1632,9 +1823,15 @@
         <v>33</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E22" s="11"/>
+      <c r="F22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" t="s">
+        <v>236</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15.75">
@@ -1648,9 +1845,15 @@
         <v>33</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E23" s="11"/>
+      <c r="F23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" t="s">
+        <v>238</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
@@ -1683,7 +1886,13 @@
         <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>244</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1698,16 +1907,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1726,7 +1935,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1741,7 +1950,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>246</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1775,16 +1990,16 @@
         <v>6</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1799,7 +2014,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>246</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1818,7 +2039,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1833,16 +2054,16 @@
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
         <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>143</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1861,7 +2082,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -1876,16 +2097,16 @@
         <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -1904,7 +2125,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -1919,16 +2140,16 @@
         <v>6</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
         <v>122</v>
-      </c>
-      <c r="F37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" t="s">
-        <v>123</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -1947,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -1956,19 +2177,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" t="s">
         <v>124</v>
-      </c>
-      <c r="G39" t="s">
-        <v>125</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -1987,7 +2208,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -2002,13 +2223,13 @@
         <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -2042,13 +2263,13 @@
         <v>9</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -2063,13 +2284,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -2084,16 +2305,16 @@
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -2112,7 +2333,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -2130,7 +2351,7 @@
         <v>81</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -2164,13 +2385,13 @@
         <v>31</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H49" s="2">
         <v>44</v>
@@ -2187,13 +2408,13 @@
         <v>31</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G50" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H50" s="2">
         <v>44</v>
@@ -2223,14 +2444,14 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D52" s="14"/>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G52" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H52" s="9"/>
     </row>
@@ -2249,7 +2470,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -2264,13 +2485,13 @@
         <v>31</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H54" s="2">
         <v>44</v>
@@ -2287,13 +2508,13 @@
         <v>31</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H55" s="2">
         <v>44</v>
@@ -2310,16 +2531,16 @@
         <v>6</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F56" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G56" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -2338,7 +2559,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -2353,16 +2574,16 @@
         <v>6</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -2381,7 +2602,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -2396,16 +2617,16 @@
         <v>9</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G60" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -2424,7 +2645,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -2439,13 +2660,13 @@
         <v>9</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -2460,13 +2681,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G63" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H63" s="2"/>
     </row>
@@ -2481,13 +2702,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F64" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="G64" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H64" s="2"/>
     </row>
@@ -2521,13 +2742,13 @@
         <v>31</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F66" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G66" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H66" s="2">
         <v>44</v>
@@ -2544,13 +2765,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F67" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" t="s">
         <v>124</v>
-      </c>
-      <c r="G67" t="s">
-        <v>125</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -2581,6 +2802,12 @@
         <v>70</v>
       </c>
       <c r="D69" s="7"/>
+      <c r="F69" t="s">
+        <v>247</v>
+      </c>
+      <c r="G69" t="s">
+        <v>248</v>
+      </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8">
@@ -2597,10 +2824,10 @@
         <v>114</v>
       </c>
       <c r="F70" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" t="s">
         <v>115</v>
-      </c>
-      <c r="G70" t="s">
-        <v>116</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -2634,13 +2861,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" t="s">
         <v>117</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>118</v>
-      </c>
-      <c r="G72" t="s">
-        <v>119</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -2655,7 +2882,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="F73" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" t="s">
+        <v>232</v>
       </c>
       <c r="H73" s="2">
         <v>11</v>
@@ -2672,7 +2905,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="F74" t="s">
+        <v>249</v>
+      </c>
+      <c r="G74" t="s">
+        <v>250</v>
       </c>
       <c r="H74" s="2"/>
     </row>
@@ -2703,6 +2942,12 @@
         <v>71</v>
       </c>
       <c r="D76" s="8"/>
+      <c r="F76" t="s">
+        <v>251</v>
+      </c>
+      <c r="G76" t="s">
+        <v>252</v>
+      </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
@@ -2716,7 +2961,13 @@
         <v>31</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="F77" t="s">
+        <v>253</v>
+      </c>
+      <c r="G77" t="s">
+        <v>254</v>
       </c>
       <c r="H77" s="2">
         <v>11</v>
@@ -2733,7 +2984,13 @@
         <v>6</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="F78" t="s">
+        <v>255</v>
+      </c>
+      <c r="G78" t="s">
+        <v>256</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -2748,7 +3005,13 @@
         <v>9</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="F79" t="s">
+        <v>201</v>
+      </c>
+      <c r="G79" t="s">
+        <v>202</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -2763,11 +3026,15 @@
         <v>9</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
@@ -2781,7 +3048,13 @@
         <v>9</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+      <c r="G81" t="s">
+        <v>260</v>
       </c>
       <c r="H81" s="9"/>
     </row>
@@ -2809,9 +3082,15 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D83" s="8"/>
+      <c r="F83" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" t="s">
+        <v>262</v>
+      </c>
       <c r="H83" s="9">
         <v>78</v>
       </c>
@@ -2821,9 +3100,15 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D84" s="13"/>
+      <c r="F84" t="s">
+        <v>261</v>
+      </c>
+      <c r="G84" t="s">
+        <v>262</v>
+      </c>
       <c r="H84" s="9">
         <v>79</v>
       </c>
@@ -2833,9 +3118,15 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D85" s="8"/>
+      <c r="F85" t="s">
+        <v>261</v>
+      </c>
+      <c r="G85" t="s">
+        <v>262</v>
+      </c>
       <c r="H85" s="9">
         <v>80</v>
       </c>
@@ -2849,10 +3140,14 @@
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="F86" t="s">
+        <v>263</v>
+      </c>
+      <c r="G86" t="s">
+        <v>264</v>
+      </c>
       <c r="H86" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2863,8 +3158,14 @@
         <v>37</v>
       </c>
       <c r="D87" s="12"/>
+      <c r="F87" t="s">
+        <v>263</v>
+      </c>
+      <c r="G87" t="s">
+        <v>264</v>
+      </c>
       <c r="H87" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2875,8 +3176,14 @@
         <v>37</v>
       </c>
       <c r="D88" s="12"/>
+      <c r="F88" t="s">
+        <v>263</v>
+      </c>
+      <c r="G88" t="s">
+        <v>264</v>
+      </c>
       <c r="H88" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2890,7 +3197,13 @@
         <v>6</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="F89" t="s">
+        <v>265</v>
+      </c>
+      <c r="G89" t="s">
+        <v>266</v>
       </c>
       <c r="H89" s="9"/>
     </row>
@@ -2921,6 +3234,12 @@
         <v>71</v>
       </c>
       <c r="D91" s="8"/>
+      <c r="F91" t="s">
+        <v>251</v>
+      </c>
+      <c r="G91" t="s">
+        <v>252</v>
+      </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8">
@@ -2934,7 +3253,13 @@
         <v>9</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="F92" t="s">
+        <v>253</v>
+      </c>
+      <c r="G92" t="s">
+        <v>254</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -2949,7 +3274,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="F93" t="s">
+        <v>267</v>
+      </c>
+      <c r="G93" t="s">
+        <v>268</v>
       </c>
       <c r="H93" s="9"/>
     </row>
@@ -2964,16 +3295,16 @@
         <v>6</v>
       </c>
       <c r="D94" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -2982,19 +3313,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G95" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H95" s="2"/>
     </row>
@@ -3009,7 +3340,13 @@
         <v>31</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="F96" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" t="s">
+        <v>270</v>
       </c>
       <c r="H96" s="2">
         <v>17</v>
@@ -3026,7 +3363,13 @@
         <v>31</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="F97" t="s">
+        <v>271</v>
+      </c>
+      <c r="G97" t="s">
+        <v>272</v>
       </c>
       <c r="H97" s="2">
         <v>24</v>
@@ -3043,16 +3386,16 @@
         <v>6</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F98" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H98" s="2"/>
     </row>
@@ -3071,7 +3414,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H99" s="2"/>
     </row>
@@ -3086,7 +3429,13 @@
         <v>6</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="F100" t="s">
+        <v>245</v>
+      </c>
+      <c r="G100" t="s">
+        <v>273</v>
       </c>
       <c r="H100" s="2"/>
     </row>
@@ -3120,16 +3469,16 @@
         <v>6</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -3144,7 +3493,13 @@
         <v>6</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
+        <v>245</v>
+      </c>
+      <c r="G103" t="s">
+        <v>273</v>
       </c>
       <c r="H103" s="2"/>
     </row>
@@ -3163,7 +3518,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H104" s="2"/>
     </row>
@@ -3178,16 +3533,16 @@
         <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" t="s">
         <v>140</v>
-      </c>
-      <c r="E105" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G105" t="s">
-        <v>143</v>
       </c>
       <c r="H105" s="2"/>
     </row>
@@ -3206,7 +3561,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H106" s="2"/>
     </row>
@@ -3221,16 +3576,16 @@
         <v>6</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E107" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G107" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H107" s="2"/>
     </row>
@@ -3249,7 +3604,7 @@
         <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H108" s="2"/>
     </row>
@@ -3264,16 +3619,16 @@
         <v>6</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E109" t="s">
+        <v>121</v>
+      </c>
+      <c r="F109" t="s">
+        <v>139</v>
+      </c>
+      <c r="G109" t="s">
         <v>122</v>
-      </c>
-      <c r="F109" t="s">
-        <v>142</v>
-      </c>
-      <c r="G109" t="s">
-        <v>123</v>
       </c>
       <c r="H109" s="2"/>
     </row>
@@ -3292,7 +3647,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H110" s="2"/>
     </row>
@@ -3301,19 +3656,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F111" t="s">
+        <v>123</v>
+      </c>
+      <c r="G111" t="s">
         <v>124</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
       </c>
       <c r="H111" s="2"/>
     </row>
@@ -3332,7 +3687,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H112" s="2"/>
     </row>
@@ -3347,13 +3702,13 @@
         <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F113" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G113" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H113" s="2"/>
     </row>
@@ -3387,13 +3742,13 @@
         <v>9</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F115" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G115" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H115" s="2"/>
     </row>
@@ -3408,13 +3763,13 @@
         <v>9</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F116" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G116" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H116" s="2"/>
     </row>
@@ -3429,16 +3784,16 @@
         <v>9</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F117" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G117" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H117" s="2"/>
     </row>
@@ -3457,7 +3812,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H118" s="2"/>
     </row>
@@ -3475,7 +3830,7 @@
         <v>81</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H119" s="2"/>
     </row>
@@ -3509,13 +3864,13 @@
         <v>31</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F121" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H121" s="2">
         <v>116</v>
@@ -3532,13 +3887,13 @@
         <v>31</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F122" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G122" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H122" s="2">
         <v>116</v>
@@ -3572,10 +3927,10 @@
       </c>
       <c r="D124" s="14"/>
       <c r="F124" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="G124" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="H124" s="9"/>
     </row>
@@ -3590,7 +3945,13 @@
         <v>9</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="F125" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125" t="s">
+        <v>254</v>
       </c>
       <c r="H125" s="2"/>
     </row>
@@ -3605,7 +3966,13 @@
         <v>9</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="F126" t="s">
+        <v>267</v>
+      </c>
+      <c r="G126" t="s">
+        <v>268</v>
       </c>
       <c r="H126" s="9"/>
     </row>
@@ -3624,7 +3991,7 @@
         <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H127" s="2"/>
     </row>
@@ -3639,13 +4006,13 @@
         <v>31</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F128" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G128" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H128" s="2">
         <v>116</v>
@@ -3662,13 +4029,13 @@
         <v>31</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F129" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G129" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H129" s="2">
         <v>116</v>
@@ -3685,16 +4052,16 @@
         <v>6</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E130" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F130" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G130" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H130" s="2"/>
     </row>
@@ -3713,7 +4080,7 @@
         <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H131" s="2"/>
     </row>
@@ -3728,16 +4095,16 @@
         <v>6</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E132" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F132" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G132" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -3756,7 +4123,7 @@
         <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H133" s="2"/>
     </row>
@@ -3771,16 +4138,16 @@
         <v>9</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E134" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F134" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G134" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H134" s="2"/>
     </row>
@@ -3799,7 +4166,7 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -3814,13 +4181,13 @@
         <v>9</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F136" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G136" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H136" s="2"/>
     </row>
@@ -3835,13 +4202,13 @@
         <v>9</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F137" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G137" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H137" s="2"/>
     </row>
@@ -3856,13 +4223,13 @@
         <v>9</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F138" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G138" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H138" s="2"/>
     </row>
@@ -3896,13 +4263,13 @@
         <v>31</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G140" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H140" s="2">
         <v>116</v>
@@ -3919,13 +4286,13 @@
         <v>9</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F141" t="s">
+        <v>123</v>
+      </c>
+      <c r="G141" t="s">
         <v>124</v>
-      </c>
-      <c r="G141" t="s">
-        <v>125</v>
       </c>
       <c r="H141" s="2"/>
     </row>
@@ -3959,11 +4326,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
